--- a/data file/Small_Cell_for_TPT_III_Config.xlsx
+++ b/data file/Small_Cell_for_TPT_III_Config.xlsx
@@ -1,33 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnoj885\Robot Framework\Obsolate Transporter\data file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="18610" windowHeight="7500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18610" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Input_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Test_Case_ID</t>
+  </si>
+  <si>
+    <t>Proferma_No</t>
+  </si>
+  <si>
+    <t>Import_Site_Template_File</t>
+  </si>
+  <si>
+    <t>SSR_Submitted_Upload_File</t>
+  </si>
+  <si>
+    <t>Drawing_Submitted_Upload_File</t>
+  </si>
+  <si>
+    <t>BOQ_Document_Upload_File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Running </t>
+  </si>
+  <si>
+    <t>Run_Status</t>
+  </si>
+  <si>
+    <t>Reference_Site_Code</t>
+  </si>
+  <si>
+    <t>SSR_ID</t>
+  </si>
+  <si>
+    <t>Pre-PR</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Import_Site_Template_Proforma Small Cell for TPT III.xls</t>
+  </si>
+  <si>
+    <t>Cat000122#_[]().jpg</t>
+  </si>
+  <si>
+    <t>Cat000125#_[]().jpg</t>
+  </si>
+  <si>
+    <t>Cat000232#_[]().jpg</t>
+  </si>
+  <si>
+    <t>2025-08-20_09:28</t>
+  </si>
+  <si>
+    <t>GR Approved</t>
+  </si>
+  <si>
+    <t>BSIF_202508200928</t>
+  </si>
+  <si>
+    <t>BKK-2025000332</t>
+  </si>
+  <si>
+    <t>NWPR2025-80411</t>
+  </si>
+  <si>
+    <t>3000002014</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="TH Sarabun PSK"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,102 +139,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,175 +436,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="21"/>
   <cols>
-    <col width="13.19921875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="12.8984375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="53.09765625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="37.8984375" customWidth="1" style="2" min="4" max="4"/>
-    <col width="37" customWidth="1" style="2" min="5" max="5"/>
-    <col width="39.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="16.59765625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="33.09765625" customWidth="1" style="2" min="8" max="8"/>
-    <col width="20.69921875" customWidth="1" style="2" min="9" max="9"/>
-    <col width="21.3984375" customWidth="1" style="2" min="10" max="10"/>
-    <col width="25.19921875" customWidth="1" style="2" min="11" max="12"/>
-    <col width="20.69921875" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
-    <col width="8.796875" customWidth="1" style="2" min="14" max="42"/>
-    <col width="8.796875" customWidth="1" style="2" min="43" max="16384"/>
+    <col min="1" max="1" width="13.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="25.19921875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="43" width="8.796875" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Test_Case_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Proferma_No</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Import_Site_Template_File</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>SSR_Submitted_Upload_File</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Drawing_Submitted_Upload_File</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>BOQ_Document_Upload_File</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Date Running </t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Run_Status</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Reference_Site_Code</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>SSR_ID</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Pre-PR</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
+    <row r="1" spans="1:20">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
         <v>1010001075</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Import_Site_Template_Proforma Small Cell for TPT III.xls</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Cat000122#_[]().jpg</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Cat000125#_[]().jpg</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Cat000232#_[]().jpg</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>2025-08-20_09:28</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>GR Approved</t>
-        </is>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>BSIF_202508200928</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="inlineStr">
-        <is>
-          <t>BKK-2025000332</t>
-        </is>
-      </c>
-      <c r="K2" s="0" t="inlineStr">
-        <is>
-          <t>NWPR2025-80411</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>3000002014</t>
-        </is>
-      </c>
-      <c r="M2" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="N2" s="0" t="inlineStr"/>
-      <c r="O2" s="0" t="inlineStr"/>
-      <c r="P2" s="0" t="inlineStr"/>
-      <c r="Q2" s="0" t="inlineStr"/>
-      <c r="R2" s="0" t="inlineStr"/>
-      <c r="S2" s="0" t="inlineStr"/>
-      <c r="T2" s="0" t="inlineStr"/>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>